--- a/Output/Classifier Inference/Random Forest/All_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/Random Forest/All_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.283421198527018e-05</v>
+        <v>0.00935910145441691</v>
       </c>
       <c r="B2" t="n">
-        <v>2.188947465684679e-06</v>
+        <v>6.285494596653398e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/Random Forest/All_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/Random Forest/All_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00935910145441691</v>
+        <v>0.01329262256622315</v>
       </c>
       <c r="B2" t="n">
-        <v>6.285494596653398e-06</v>
+        <v>8.927214618014201e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/Random Forest/All_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/Random Forest/All_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01329262256622315</v>
+        <v>0.01490409771601359</v>
       </c>
       <c r="B2" t="n">
-        <v>8.927214618014201e-06</v>
+        <v>1.000946790867266e-05</v>
       </c>
     </row>
   </sheetData>
